--- a/presentation/Gestion de projet informatique.xlsx
+++ b/presentation/Gestion de projet informatique.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{876815EB-93A2-40B1-AD01-D87E855568B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6EDFF5D-E3BB-4DE0-B3AB-D687B9453A4E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1749B88F-F0A5-4718-9F19-1EF6636662FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A5BF07-E7C9-4B04-8C3B-4B8BE10E9042}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Executant</t>
   </si>
@@ -46,40 +46,43 @@
     <t>Nombre de tâche</t>
   </si>
   <si>
+    <t>Amine / Guillaume</t>
+  </si>
+  <si>
+    <t>Interface WEB</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>Brieuc</t>
+  </si>
+  <si>
+    <t>Création du calendrier</t>
+  </si>
+  <si>
+    <t>Guillaume</t>
+  </si>
+  <si>
+    <t>Guillaume / Hugo</t>
+  </si>
+  <si>
+    <t>Webscraping planning</t>
+  </si>
+  <si>
     <t>Amine</t>
   </si>
   <si>
-    <t>Interface WEB</t>
-  </si>
-  <si>
-    <t>Hugo</t>
-  </si>
-  <si>
-    <t>Brieuc</t>
-  </si>
-  <si>
-    <t>Création du calendrier</t>
-  </si>
-  <si>
-    <t>Guillaume</t>
-  </si>
-  <si>
-    <t>Guillaume / Hugo</t>
-  </si>
-  <si>
-    <t>Webscraping planning</t>
-  </si>
-  <si>
-    <t>Envoi par mail</t>
-  </si>
-  <si>
-    <t>Base de données</t>
+    <t>Envoi par mail du calendrier</t>
+  </si>
+  <si>
+    <t>Base de données sqlite</t>
   </si>
   <si>
     <t>Webscraping note </t>
   </si>
   <si>
-    <t>Brieuc / Guillaume</t>
+    <t xml:space="preserve">Brieuc </t>
   </si>
   <si>
     <t>Reconnaissance vocale (Jarvis)</t>
@@ -88,7 +91,7 @@
     <t>Affichage tableau de bord</t>
   </si>
   <si>
-    <t>Création des graphiques</t>
+    <t>Création des graphiques à partir de la BDD</t>
   </si>
   <si>
     <t xml:space="preserve">Brieuc  </t>
@@ -97,9 +100,6 @@
     <t>Ajouter des données sur l'Isen</t>
   </si>
   <si>
-    <t>Hugo / Guillaume</t>
-  </si>
-  <si>
     <t>Explorer la piste NodeJS</t>
   </si>
   <si>
@@ -109,9 +109,15 @@
     <t>Connexion à la BDD à partir de python</t>
   </si>
   <si>
+    <t>Amine / Hugo</t>
+  </si>
+  <si>
     <t>Connexion à la BDD à partir de l'interface</t>
   </si>
   <si>
+    <t xml:space="preserve">Guillaume </t>
+  </si>
+  <si>
     <t>Récupérer les coefficients</t>
   </si>
   <si>
@@ -121,7 +127,37 @@
     <t>Ajouter des graphiques sur le Readme</t>
   </si>
   <si>
-    <t>Ajouter le calendrier .csv</t>
+    <t>Faire le responsive du site internet</t>
+  </si>
+  <si>
+    <t>Chatbot</t>
+  </si>
+  <si>
+    <t>Passer sur un serveur linux</t>
+  </si>
+  <si>
+    <t>Résumé sur word</t>
+  </si>
+  <si>
+    <t>Designer les différents mockups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisation du powerpoint </t>
+  </si>
+  <si>
+    <t>Script qui envoie le planning</t>
+  </si>
+  <si>
+    <t>Algorithme qui envoie le planning toutes les semaines</t>
+  </si>
+  <si>
+    <t>Script qui fourni la BDD avec les informations</t>
+  </si>
+  <si>
+    <t>Passer la BDD de sqqlite en  mysql  et la compléter</t>
+  </si>
+  <si>
+    <t>Ajouter le calendrier .csv automatiquement</t>
   </si>
 </sst>
 </file>
@@ -221,6 +257,319 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="3200"/>
+              <a:t>Répartition des tâches </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="3200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nombre de tâche</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="B4E6DA"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E8AD72"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4571-4B69-BD56-E9D4CBCB1A5C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="37AF92"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4571-4B69-BD56-E9D4CBCB1A5C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B087D9"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4571-4B69-BD56-E9D4CBCB1A5C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="B4E6DA"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4571-4B69-BD56-E9D4CBCB1A5C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$I$2:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Hugo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Guillaume</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Amine</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Brieuc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$J$2:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B42-48C7-90F3-7D5344737F42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
@@ -286,9 +635,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$2:$B$18</c:f>
+              <c:f>Feuil1!$B$2:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Interface WEB</c:v>
                 </c:pt>
@@ -299,10 +648,10 @@
                   <c:v>Webscraping planning</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Envoi par mail</c:v>
+                  <c:v>Envoi par mail du calendrier</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Base de données</c:v>
+                  <c:v>Base de données sqlite</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Webscraping note </c:v>
@@ -314,7 +663,7 @@
                   <c:v>Affichage tableau de bord</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Création des graphiques</c:v>
+                  <c:v>Création des graphiques à partir de la BDD</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Ajouter des données sur l'Isen</c:v>
@@ -338,17 +687,47 @@
                   <c:v>Ajouter des graphiques sur le Readme</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Ajouter le calendrier .csv</c:v>
+                  <c:v>Ajouter le calendrier .csv automatiquement</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Faire le responsive du site internet</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Chatbot</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Passer sur un serveur linux</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Passer la BDD de sqqlite en  mysql  et la compléter</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Résumé sur word</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Designer les différents mockups</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Réalisation du powerpoint </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Script qui envoie le planning</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Algorithme qui envoie le planning toutes les semaines</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Script qui fourni la BDD avec les informations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$2:$C$18</c:f>
+              <c:f>Feuil1!$C$2:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -399,6 +778,36 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -427,9 +836,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$B$2:$B$18</c:f>
+              <c:f>Feuil1!$B$2:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>Interface WEB</c:v>
                 </c:pt>
@@ -440,10 +849,10 @@
                   <c:v>Webscraping planning</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Envoi par mail</c:v>
+                  <c:v>Envoi par mail du calendrier</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Base de données</c:v>
+                  <c:v>Base de données sqlite</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Webscraping note </c:v>
@@ -455,7 +864,7 @@
                   <c:v>Affichage tableau de bord</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Création des graphiques</c:v>
+                  <c:v>Création des graphiques à partir de la BDD</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Ajouter des données sur l'Isen</c:v>
@@ -479,17 +888,47 @@
                   <c:v>Ajouter des graphiques sur le Readme</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Ajouter le calendrier .csv</c:v>
+                  <c:v>Ajouter le calendrier .csv automatiquement</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Faire le responsive du site internet</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Chatbot</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Passer sur un serveur linux</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Passer la BDD de sqqlite en  mysql  et la compléter</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Résumé sur word</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Designer les différents mockups</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Réalisation du powerpoint </c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Script qui envoie le planning</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Algorithme qui envoie le planning toutes les semaines</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Script qui fourni la BDD avec les informations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$2:$D$18</c:f>
+              <c:f>Feuil1!$D$2:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>49</c:v>
                 </c:pt>
@@ -503,7 +942,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8</c:v>
@@ -518,19 +957,19 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>49</c:v>
@@ -539,7 +978,37 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,319 +1347,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" sz="3200"/>
-              <a:t>Répartition des tâches </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="3200"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="3200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:doughnutChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Nombre de tâche</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="B4E6DA"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="E8AD72"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4571-4B69-BD56-E9D4CBCB1A5C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="37AF92"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4571-4B69-BD56-E9D4CBCB1A5C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B087D9"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-4571-4B69-BD56-E9D4CBCB1A5C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="B4E6DA"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-4571-4B69-BD56-E9D4CBCB1A5C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feuil1!$I$2:$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Hugo</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Guillaume</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Amine</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Brieuc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil1!$J$2:$J$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4B42-48C7-90F3-7D5344737F42}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-        <c:holeSize val="75"/>
-      </c:doughnutChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1272,6 +1428,525 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1739,546 +2414,30 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>36777</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>122315</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>372798</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>281818</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>10131</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="47" name="Graphique 4">
+        <xdr:cNvPr id="2" name="Graphique 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05FB074-8CDB-44B9-B809-748E9F6B33BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0D5FF5-C9F2-4641-97B3-CAB68BC2D3A0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B05FB074-8CDB-44B9-B809-748E9F6B33BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,26 +2457,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>690489</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>79450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1730375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>229923</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>45055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Graphique 7">
+        <xdr:cNvPr id="3" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0D5FF5-C9F2-4641-97B3-CAB68BC2D3A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05FB074-8CDB-44B9-B809-748E9F6B33BA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B05FB074-8CDB-44B9-B809-748E9F6B33BA}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AE0D5FF5-C9F2-4641-97B3-CAB68BC2D3A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2635,16 +2794,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7EDC20-7B7C-4A7E-972E-FECEFF2E9DC1}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="5" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="7.140625" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
@@ -2687,7 +2846,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF(A:A,"*Hugo*")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2708,7 +2867,7 @@
       </c>
       <c r="J3">
         <f>COUNTIF(A:A,"*Guillaume*")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2725,11 +2884,11 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J4">
         <f>COUNTIF(A:A,"*Amine*")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2737,7 +2896,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -2750,21 +2909,21 @@
       </c>
       <c r="J5">
         <f>COUNTIF(A:A,"*Brieuc*")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2772,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2783,10 +2942,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -2797,10 +2956,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -2811,10 +2970,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>31</v>
@@ -2825,21 +2984,21 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>32</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -2848,7 +3007,7 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2862,35 +3021,35 @@
         <v>24</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>24</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2898,7 +3057,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2912,7 +3071,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2926,13 +3085,150 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>14</v>
       </c>
       <c r="D18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>28</v>
+      </c>
+      <c r="D19">
         <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/presentation/Gestion de projet informatique.xlsx
+++ b/presentation/Gestion de projet informatique.xlsx
@@ -3,13 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1749B88F-F0A5-4718-9F19-1EF6636662FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A5BF07-E7C9-4B04-8C3B-4B8BE10E9042}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{1749B88F-F0A5-4718-9F19-1EF6636662FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC7D1D81-1E67-47BB-8D60-5D890B884F98}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$A$2:$B$28</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$D$2:$D$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$A$2:$B$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$D$2:$D$28</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$A$2:$B$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$D$2:$D$28</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$A$2:$B$28</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$D$2:$D$28</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Executant</t>
   </si>
@@ -46,9 +56,6 @@
     <t>Nombre de tâche</t>
   </si>
   <si>
-    <t>Amine / Guillaume</t>
-  </si>
-  <si>
     <t>Interface WEB</t>
   </si>
   <si>
@@ -64,9 +71,6 @@
     <t>Guillaume</t>
   </si>
   <si>
-    <t>Guillaume / Hugo</t>
-  </si>
-  <si>
     <t>Webscraping planning</t>
   </si>
   <si>
@@ -85,9 +89,6 @@
     <t xml:space="preserve">Brieuc </t>
   </si>
   <si>
-    <t>Reconnaissance vocale (Jarvis)</t>
-  </si>
-  <si>
     <t>Affichage tableau de bord</t>
   </si>
   <si>
@@ -103,15 +104,9 @@
     <t>Explorer la piste NodeJS</t>
   </si>
   <si>
-    <t>Hugo / Brieuc</t>
-  </si>
-  <si>
     <t>Connexion à la BDD à partir de python</t>
   </si>
   <si>
-    <t>Amine / Hugo</t>
-  </si>
-  <si>
     <t>Connexion à la BDD à partir de l'interface</t>
   </si>
   <si>
@@ -154,10 +149,34 @@
     <t>Script qui fourni la BDD avec les informations</t>
   </si>
   <si>
-    <t>Passer la BDD de sqqlite en  mysql  et la compléter</t>
-  </si>
-  <si>
     <t>Ajouter le calendrier .csv automatiquement</t>
+  </si>
+  <si>
+    <t>Reconnaissance vocale</t>
+  </si>
+  <si>
+    <t>Amine &amp; Guillaume</t>
+  </si>
+  <si>
+    <t>Guillaume &amp; Hugo</t>
+  </si>
+  <si>
+    <t>Guillaume &amp; Amine</t>
+  </si>
+  <si>
+    <t>Hugo &amp; Brieuc</t>
+  </si>
+  <si>
+    <t>Amine &amp; Hugo</t>
+  </si>
+  <si>
+    <t>Brieuc  &amp;Amine</t>
+  </si>
+  <si>
+    <t>Guillaume &amp; Brieuc</t>
+  </si>
+  <si>
+    <t>Passer la BDD de sqlite en  mysql  et la compléter</t>
   </si>
 </sst>
 </file>
@@ -437,16 +456,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,7 +676,7 @@
                   <c:v>Webscraping note </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Reconnaissance vocale (Jarvis)</c:v>
+                  <c:v>Reconnaissance vocale</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Affichage tableau de bord</c:v>
@@ -699,7 +718,7 @@
                   <c:v>Passer sur un serveur linux</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Passer la BDD de sqqlite en  mysql  et la compléter</c:v>
+                  <c:v>Passer la BDD de sqlite en  mysql  et la compléter</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Résumé sur word</c:v>
@@ -729,7 +748,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -771,7 +790,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
@@ -858,7 +877,7 @@
                   <c:v>Webscraping note </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Reconnaissance vocale (Jarvis)</c:v>
+                  <c:v>Reconnaissance vocale</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Affichage tableau de bord</c:v>
@@ -900,7 +919,7 @@
                   <c:v>Passer sur un serveur linux</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Passer la BDD de sqqlite en  mysql  et la compléter</c:v>
+                  <c:v>Passer la BDD de sqlite en  mysql  et la compléter</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>Résumé sur word</c:v>
@@ -930,7 +949,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -951,52 +970,52 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>30</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>9</c:v>
@@ -1347,6 +1366,37 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{CF7B7AA7-0749-42E6-9D5D-A73A96FB392B}">
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="1" value="0"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1427,6 +1477,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -2414,20 +2504,542 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>122315</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66601</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>709690</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>98351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>281818</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>10131</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>107193</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>41881</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2457,16 +3069,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1730375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>155311</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>229923</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>45055</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468048</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>172055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2492,6 +3104,84 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Graphique 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF79271-677C-432E-B154-526C3721B0D9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7620001" y="238125"/>
+              <a:ext cx="14589124" cy="7842249"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2797,13 +3487,13 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="7.140625" customWidth="1"/>
     <col min="8" max="8" width="23.140625" customWidth="1"/>
@@ -2830,31 +3520,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>49</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
       </c>
       <c r="J2">
         <f>COUNTIF(A:A,"*Hugo*")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2863,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <f>COUNTIF(A:A,"*Guillaume*")</f>
@@ -2872,10 +3562,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2884,19 +3574,19 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <f>COUNTIF(A:A,"*Amine*")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -2905,19 +3595,19 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <f>COUNTIF(A:A,"*Brieuc*")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -2928,10 +3618,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -2942,10 +3632,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>30</v>
@@ -2956,24 +3646,24 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>22</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>31</v>
@@ -2984,66 +3674,66 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>32</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>16</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>24</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>24</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -3054,66 +3744,66 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>14</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>28</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>24</v>
@@ -3124,24 +3814,24 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C22">
         <v>24</v>
@@ -3152,35 +3842,38 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>40</v>
@@ -3191,10 +3884,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>30</v>
@@ -3205,10 +3898,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>30</v>
@@ -3219,10 +3912,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>30</v>

--- a/presentation/Gestion de projet informatique.xlsx
+++ b/presentation/Gestion de projet informatique.xlsx
@@ -13,12 +13,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$A$2:$B$28</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$D$2:$D$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$A$2:$B$28</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$D$2:$D$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$A$2:$B$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$D$2:$D$28</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$A$2:$B$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$D$2:$D$28</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1371,10 +1365,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3153,8 +3147,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7620001" y="238125"/>
-              <a:ext cx="14589124" cy="7842249"/>
+              <a:off x="7623176" y="238125"/>
+              <a:ext cx="14582774" cy="7842249"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3487,7 +3481,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/presentation/Gestion de projet informatique.xlsx
+++ b/presentation/Gestion de projet informatique.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{1749B88F-F0A5-4718-9F19-1EF6636662FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC7D1D81-1E67-47BB-8D60-5D890B884F98}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{1749B88F-F0A5-4718-9F19-1EF6636662FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9141B849-B387-46D4-A6DE-C4B24185D358}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{087A1B5B-7B97-4327-AC94-7D0ECF997B43}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>Algorithme qui envoie le planning toutes les semaines</t>
   </si>
   <si>
-    <t>Script qui fourni la BDD avec les informations</t>
-  </si>
-  <si>
     <t>Ajouter le calendrier .csv automatiquement</t>
   </si>
   <si>
@@ -171,13 +168,16 @@
   </si>
   <si>
     <t>Passer la BDD de sqlite en  mysql  et la compléter</t>
+  </si>
+  <si>
+    <t>Script qui fournit la BDD avec les informations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,10 +187,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Poppins"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,9 +216,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,9 +591,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -616,9 +620,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="fr-FR"/>
@@ -730,7 +734,7 @@
                   <c:v>Algorithme qui envoie le planning toutes les semaines</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Script qui fourni la BDD avec les informations</c:v>
+                  <c:v>Script qui fournit la BDD avec les informations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -931,7 +935,7 @@
                   <c:v>Algorithme qui envoie le planning toutes les semaines</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Script qui fourni la BDD avec les informations</c:v>
+                  <c:v>Script qui fournit la BDD avec les informations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1059,17 +1063,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1600"/>
+                  <a:rPr lang="fr-FR"/>
                   <a:t>Tâches</a:t>
                 </a:r>
               </a:p>
@@ -1088,13 +1092,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="fr-FR"/>
@@ -1123,13 +1127,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
@@ -1174,20 +1178,15 @@
                     <a:solidFill>
                       <a:schemeClr val="tx2"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR" sz="1600"/>
-                  <a:t>Nombre de</a:t>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Nombre de jours</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" sz="1600" baseline="0"/>
-                  <a:t> jours</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1216,9 +1215,9 @@
                   <a:solidFill>
                     <a:schemeClr val="tx2"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="fr-FR"/>
@@ -1245,9 +1244,9 @@
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
@@ -1274,13 +1273,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
@@ -1314,9 +1313,9 @@
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="fr-FR"/>
@@ -1347,7 +1346,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="fr-FR"/>
     </a:p>
@@ -1373,11 +1375,69 @@
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Visualisation de la répartition des tâches et de leur effort en terme de temps</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base">
+            <a:defRPr>
+              <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1800" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>Visualisation de la répartition des tâches et de leur effort en terme de temps</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="treemap" uniqueId="{CF7B7AA7-0749-42E6-9D5D-A73A96FB392B}">
+          <cx:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
           <cx:dataLabels pos="inEnd">
+            <cx:txPr>
+              <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr sz="900" b="0" i="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="Poppins" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
             <cx:visibility seriesName="0" categoryName="1" value="0"/>
           </cx:dataLabels>
           <cx:dataId val="0"/>
@@ -3063,16 +3123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>91811</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>244210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>468048</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>172055</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3102,16 +3162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222251</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>450851</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3147,8 +3207,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7623176" y="238125"/>
-              <a:ext cx="14582774" cy="7842249"/>
+              <a:off x="25825451" y="390525"/>
+              <a:ext cx="11322049" cy="15154275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3480,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7EDC20-7B7C-4A7E-972E-FECEFF2E9DC1}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AF87" sqref="AF87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3495,34 +3555,34 @@
     <col min="10" max="10" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>20</v>
       </c>
       <c r="I2" t="s">
@@ -3533,17 +3593,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
       <c r="I3" t="s">
@@ -3554,17 +3614,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="I4" t="s">
@@ -3575,17 +3635,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>5</v>
       </c>
       <c r="I5" t="s">
@@ -3596,325 +3656,325 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.6">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.6">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1">
         <v>4</v>
       </c>
-      <c r="D6">
+    </row>
+    <row r="20" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
+    <row r="25" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1">
+        <v>40</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
+    <row r="26" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="1">
         <v>30</v>
       </c>
-      <c r="D8">
-        <v>16</v>
+      <c r="D26" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="27" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>24</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="D14">
+    <row r="28" spans="1:4" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20">
-        <v>24</v>
-      </c>
-      <c r="D20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22">
-        <v>24</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C28" s="1">
         <v>30</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>40</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27">
-        <v>30</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>5</v>
       </c>
     </row>
